--- a/vinuri_webshop_43.xlsx
+++ b/vinuri_webshop_43.xlsx
@@ -3791,12 +3791,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd\-mmm"/>
     <numFmt numFmtId="177" formatCode="#,##0\ &quot;lei&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3819,31 +3819,16 @@
       <charset val="238"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3856,6 +3841,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3863,8 +3856,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3880,14 +3882,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3895,8 +3897,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3911,44 +3935,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3963,15 +3950,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4006,7 +3999,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4018,13 +4095,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4036,145 +4119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4187,6 +4138,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4209,21 +4202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4239,17 +4217,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4271,9 +4258,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4286,166 +4290,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4575,19 +4568,10 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4595,21 +4579,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4932,12 +4901,12 @@
   <sheetPr/>
   <dimension ref="A1:AK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AA80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="AH85" sqref="AH85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -18193,7 +18162,7 @@
       <c r="O145" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P145" s="50" t="s">
+      <c r="P145" s="48" t="s">
         <v>970</v>
       </c>
       <c r="Q145" s="22" t="s">
@@ -18277,7 +18246,7 @@
       <c r="N146" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O146" s="48" t="s">
+      <c r="O146" s="47" t="s">
         <v>48</v>
       </c>
       <c r="P146" s="5" t="s">
@@ -18367,19 +18336,19 @@
       <c r="O147" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P147" s="50" t="s">
+      <c r="P147" s="48" t="s">
         <v>980</v>
       </c>
       <c r="Q147" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="R147" s="52" t="s">
+      <c r="R147" s="49" t="s">
         <v>685</v>
       </c>
       <c r="S147" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="T147" s="53" t="s">
+      <c r="T147" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U147" s="32" t="s">
@@ -18451,7 +18420,7 @@
       <c r="N148" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O148" s="48" t="s">
+      <c r="O148" s="47" t="s">
         <v>48</v>
       </c>
       <c r="P148" s="5" t="s">
@@ -18466,7 +18435,7 @@
       <c r="S148" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="T148" s="53" t="s">
+      <c r="T148" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U148" s="32" t="s">
@@ -18538,7 +18507,7 @@
       <c r="N149" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O149" s="48" t="s">
+      <c r="O149" s="47" t="s">
         <v>48</v>
       </c>
       <c r="P149" s="5" t="s">
@@ -18553,7 +18522,7 @@
       <c r="S149" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="T149" s="53" t="s">
+      <c r="T149" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U149" s="32" t="s">
@@ -18625,22 +18594,22 @@
       <c r="N150" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O150" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="P150" s="50" t="s">
+      <c r="O150" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P150" s="48" t="s">
         <v>993</v>
       </c>
       <c r="Q150" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R150" s="52" t="s">
+      <c r="R150" s="49" t="s">
         <v>66</v>
       </c>
       <c r="S150" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="T150" s="53" t="s">
+      <c r="T150" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U150" s="32" t="s">
@@ -18712,22 +18681,22 @@
       <c r="N151" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O151" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="P151" s="50" t="s">
+      <c r="O151" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P151" s="48" t="s">
         <v>999</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R151" s="52" t="s">
+      <c r="R151" s="49" t="s">
         <v>1000</v>
       </c>
       <c r="S151" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="T151" s="53" t="s">
+      <c r="T151" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U151" s="32" t="s">
@@ -18796,22 +18765,22 @@
       <c r="N152" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O152" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="P152" s="50" t="s">
+      <c r="O152" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P152" s="48" t="s">
         <v>1006</v>
       </c>
       <c r="Q152" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R152" s="52" t="s">
+      <c r="R152" s="49" t="s">
         <v>66</v>
       </c>
       <c r="S152" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="T152" s="53" t="s">
+      <c r="T152" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U152" s="32" t="s">
@@ -18883,22 +18852,22 @@
       <c r="N153" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O153" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="P153" s="50" t="s">
+      <c r="O153" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P153" s="48" t="s">
         <v>1011</v>
       </c>
       <c r="Q153" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R153" s="52" t="s">
+      <c r="R153" s="49" t="s">
         <v>66</v>
       </c>
       <c r="S153" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="T153" s="53" t="s">
+      <c r="T153" s="50" t="s">
         <v>63</v>
       </c>
       <c r="U153" s="32" t="s">
@@ -19300,7 +19269,7 @@
       <c r="F158" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G158" s="48" t="s">
+      <c r="G158" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -19315,7 +19284,7 @@
       <c r="K158" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L158" s="48" t="s">
+      <c r="L158" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M158" s="7">
@@ -19324,7 +19293,7 @@
       <c r="N158" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O158" s="48" t="s">
+      <c r="O158" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P158" s="5" t="s">
@@ -19389,7 +19358,7 @@
       <c r="F159" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G159" s="48" t="s">
+      <c r="G159" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -19404,7 +19373,7 @@
       <c r="K159" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L159" s="48" t="s">
+      <c r="L159" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M159" s="7">
@@ -19413,7 +19382,7 @@
       <c r="N159" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O159" s="48" t="s">
+      <c r="O159" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P159" s="5" t="s">
@@ -19493,7 +19462,7 @@
       <c r="K160" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L160" s="48" t="s">
+      <c r="L160" s="47" t="s">
         <v>713</v>
       </c>
       <c r="M160" s="7">
@@ -19502,7 +19471,7 @@
       <c r="N160" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O160" s="48" t="s">
+      <c r="O160" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P160" s="5" t="s">
@@ -19580,7 +19549,7 @@
       <c r="K161" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L161" s="48" t="s">
+      <c r="L161" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M161" s="7">
@@ -19589,7 +19558,7 @@
       <c r="N161" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O161" s="48" t="s">
+      <c r="O161" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P161" s="5" t="s">
@@ -19660,7 +19629,7 @@
       <c r="F162" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G162" s="48" t="s">
+      <c r="G162" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -19675,7 +19644,7 @@
       <c r="K162" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L162" s="48" t="s">
+      <c r="L162" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M162" s="7">
@@ -19684,7 +19653,7 @@
       <c r="N162" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O162" s="48" t="s">
+      <c r="O162" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P162" s="5" t="s">
@@ -19752,7 +19721,7 @@
       <c r="F163" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G163" s="48" t="s">
+      <c r="G163" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -19767,7 +19736,7 @@
       <c r="K163" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L163" s="48" t="s">
+      <c r="L163" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M163" s="7">
@@ -19776,7 +19745,7 @@
       <c r="N163" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O163" s="48" t="s">
+      <c r="O163" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P163" s="5" t="s">
@@ -19806,7 +19775,7 @@
       <c r="AE163" s="14">
         <v>200</v>
       </c>
-      <c r="AH163" s="56" t="s">
+      <c r="AH163" s="37" t="s">
         <v>54</v>
       </c>
       <c r="AI163" s="18" t="s">
@@ -19841,7 +19810,7 @@
       <c r="F164" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G164" s="48" t="s">
+      <c r="G164" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -19856,7 +19825,7 @@
       <c r="K164" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L164" s="48" t="s">
+      <c r="L164" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M164" s="7">
@@ -19865,7 +19834,7 @@
       <c r="N164" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O164" s="48" t="s">
+      <c r="O164" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P164" s="5" t="s">
@@ -19915,10 +19884,10 @@
       </c>
     </row>
     <row r="165" ht="55" customHeight="1" spans="1:37">
-      <c r="A165" s="47" t="s">
+      <c r="A165" s="19" t="s">
         <v>1064</v>
       </c>
-      <c r="B165" s="47" t="s">
+      <c r="B165" s="19" t="s">
         <v>1065</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -19933,7 +19902,7 @@
       <c r="F165" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G165" s="48" t="s">
+      <c r="G165" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -19948,7 +19917,7 @@
       <c r="K165" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L165" s="48" t="s">
+      <c r="L165" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M165" s="7">
@@ -19957,7 +19926,7 @@
       <c r="N165" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O165" s="49" t="s">
+      <c r="O165" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P165" s="5" t="s">
@@ -19981,13 +19950,13 @@
       <c r="W165" s="13">
         <v>96</v>
       </c>
-      <c r="AD165" s="55" t="s">
+      <c r="AD165" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE165" s="14">
         <v>230</v>
       </c>
-      <c r="AH165" s="56" t="s">
+      <c r="AH165" s="37" t="s">
         <v>54</v>
       </c>
       <c r="AI165" s="18" t="s">
@@ -20022,7 +19991,7 @@
       <c r="F166" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G166" s="48" t="s">
+      <c r="G166" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -20037,7 +20006,7 @@
       <c r="K166" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L166" s="48" t="s">
+      <c r="L166" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M166" s="7">
@@ -20046,7 +20015,7 @@
       <c r="N166" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O166" s="48" t="s">
+      <c r="O166" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P166" s="5" t="s">
@@ -20093,10 +20062,10 @@
       </c>
     </row>
     <row r="167" ht="55" customHeight="1" spans="1:37">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="19" t="s">
         <v>1070</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B167" s="19" t="s">
         <v>1071</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -20111,7 +20080,7 @@
       <c r="F167" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G167" s="48" t="s">
+      <c r="G167" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H167" s="5" t="s">
@@ -20126,7 +20095,7 @@
       <c r="K167" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L167" s="48" t="s">
+      <c r="L167" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M167" s="7">
@@ -20135,7 +20104,7 @@
       <c r="N167" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O167" s="48" t="s">
+      <c r="O167" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P167" s="5" t="s">
@@ -20159,7 +20128,7 @@
       <c r="W167" s="13">
         <v>97</v>
       </c>
-      <c r="AD167" s="55" t="s">
+      <c r="AD167" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE167" s="14">
@@ -20171,7 +20140,7 @@
       <c r="AI167" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="AJ167" s="57" t="s">
+      <c r="AJ167" s="38" t="s">
         <v>1073</v>
       </c>
       <c r="AK167" s="2" t="str">
@@ -20182,10 +20151,10 @@
       </c>
     </row>
     <row r="168" ht="55" customHeight="1" spans="1:37">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B168" s="19" t="s">
         <v>1075</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -20200,7 +20169,7 @@
       <c r="F168" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G168" s="48" t="s">
+      <c r="G168" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H168" s="5" t="s">
@@ -20215,7 +20184,7 @@
       <c r="K168" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L168" s="48" t="s">
+      <c r="L168" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M168" s="7">
@@ -20224,7 +20193,7 @@
       <c r="N168" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O168" s="48" t="s">
+      <c r="O168" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P168" s="5" t="s">
@@ -20248,7 +20217,7 @@
       <c r="W168" s="13">
         <v>97</v>
       </c>
-      <c r="AD168" s="55" t="s">
+      <c r="AD168" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE168" s="14">
@@ -20260,7 +20229,7 @@
       <c r="AI168" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="AJ168" s="57" t="s">
+      <c r="AJ168" s="38" t="s">
         <v>1077</v>
       </c>
       <c r="AK168" s="2" t="str">
@@ -20271,10 +20240,10 @@
       </c>
     </row>
     <row r="169" ht="55" customHeight="1" spans="1:37">
-      <c r="A169" s="47" t="s">
+      <c r="A169" s="19" t="s">
         <v>1078</v>
       </c>
-      <c r="B169" s="47" t="s">
+      <c r="B169" s="19" t="s">
         <v>1079</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -20289,7 +20258,7 @@
       <c r="F169" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G169" s="48" t="s">
+      <c r="G169" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="H169" s="5" t="s">
@@ -20304,7 +20273,7 @@
       <c r="K169" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L169" s="48" t="s">
+      <c r="L169" s="47" t="s">
         <v>46</v>
       </c>
       <c r="M169" s="7">
@@ -20313,7 +20282,7 @@
       <c r="N169" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O169" s="49" t="s">
+      <c r="O169" s="47" t="s">
         <v>48</v>
       </c>
       <c r="P169" s="5" t="s">
@@ -20337,19 +20306,19 @@
       <c r="W169" s="13">
         <v>98</v>
       </c>
-      <c r="AD169" s="55" t="s">
+      <c r="AD169" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE169" s="14">
         <v>355</v>
       </c>
-      <c r="AH169" s="56" t="s">
+      <c r="AH169" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AI169" s="58" t="s">
+      <c r="AI169" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="AJ169" s="57" t="s">
+      <c r="AJ169" s="38" t="s">
         <v>1081</v>
       </c>
       <c r="AK169" s="2" t="str">
@@ -20360,10 +20329,10 @@
       </c>
     </row>
     <row r="170" ht="55" customHeight="1" spans="1:37">
-      <c r="A170" s="47" t="s">
+      <c r="A170" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="B170" s="47" t="s">
+      <c r="B170" s="19" t="s">
         <v>1083</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -20393,7 +20362,7 @@
       <c r="K170" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L170" s="49" t="s">
+      <c r="L170" s="47" t="s">
         <v>713</v>
       </c>
       <c r="M170" s="7">
@@ -20402,10 +20371,10 @@
       <c r="N170" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O170" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="P170" s="51" t="s">
+      <c r="O170" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P170" s="48" t="s">
         <v>1084</v>
       </c>
       <c r="Q170" s="6" t="s">
@@ -20426,19 +20395,19 @@
       <c r="W170" s="13">
         <v>95</v>
       </c>
-      <c r="AD170" s="55" t="s">
+      <c r="AD170" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE170" s="14">
         <v>155</v>
       </c>
-      <c r="AH170" s="56" t="s">
+      <c r="AH170" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AI170" s="58" t="s">
+      <c r="AI170" s="18" t="s">
         <v>1085</v>
       </c>
-      <c r="AJ170" s="57" t="s">
+      <c r="AJ170" s="38" t="s">
         <v>1086</v>
       </c>
       <c r="AK170" s="2" t="str">
@@ -20449,10 +20418,10 @@
       </c>
     </row>
     <row r="171" ht="55" customHeight="1" spans="1:37">
-      <c r="A171" s="47" t="s">
+      <c r="A171" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="B171" s="47" t="s">
+      <c r="B171" s="19" t="s">
         <v>1088</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -20482,7 +20451,7 @@
       <c r="K171" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L171" s="49" t="s">
+      <c r="L171" s="47" t="s">
         <v>713</v>
       </c>
       <c r="M171" s="7">
@@ -20491,10 +20460,10 @@
       <c r="N171" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O171" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="P171" s="51" t="s">
+      <c r="O171" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P171" s="48" t="s">
         <v>1084</v>
       </c>
       <c r="Q171" s="6" t="s">
@@ -20506,28 +20475,28 @@
       <c r="S171" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="T171" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="U171" s="55" t="s">
+      <c r="T171" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="U171" s="32" t="s">
         <v>63</v>
       </c>
       <c r="W171" s="13">
         <v>94</v>
       </c>
-      <c r="AD171" s="55" t="s">
+      <c r="AD171" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE171" s="14">
         <v>155</v>
       </c>
-      <c r="AH171" s="56" t="s">
+      <c r="AH171" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AI171" s="58" t="s">
+      <c r="AI171" s="18" t="s">
         <v>1089</v>
       </c>
-      <c r="AJ171" s="57" t="s">
+      <c r="AJ171" s="38" t="s">
         <v>1090</v>
       </c>
       <c r="AK171" s="2" t="str">
@@ -20538,10 +20507,10 @@
       </c>
     </row>
     <row r="172" ht="55" customHeight="1" spans="1:37">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="B172" s="47" t="s">
+      <c r="B172" s="19" t="s">
         <v>1092</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -20556,13 +20525,13 @@
       <c r="F172" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G172" s="49" t="s">
+      <c r="G172" s="47" t="s">
         <v>1093</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="I172" s="49" t="s">
+      <c r="I172" s="47" t="s">
         <v>125</v>
       </c>
       <c r="J172" s="6" t="s">
@@ -20571,7 +20540,7 @@
       <c r="K172" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L172" s="49" t="s">
+      <c r="L172" s="47" t="s">
         <v>127</v>
       </c>
       <c r="M172" s="7">
@@ -20580,7 +20549,7 @@
       <c r="N172" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O172" s="49" t="s">
+      <c r="O172" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P172" s="5" t="s">
@@ -20595,25 +20564,25 @@
       <c r="S172" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="T172" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="U172" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD172" s="55" t="s">
+      <c r="T172" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="U172" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD172" s="32" t="s">
         <v>63</v>
       </c>
       <c r="AE172" s="14">
         <v>125</v>
       </c>
-      <c r="AH172" s="56" t="s">
+      <c r="AH172" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AI172" s="58" t="s">
+      <c r="AI172" s="18" t="s">
         <v>1095</v>
       </c>
-      <c r="AJ172" s="57" t="s">
+      <c r="AJ172" s="38" t="s">
         <v>1096</v>
       </c>
       <c r="AK172" s="2" t="str">
@@ -20624,10 +20593,10 @@
       </c>
     </row>
     <row r="173" ht="55" customHeight="1" spans="1:37">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="19" t="s">
         <v>1097</v>
       </c>
-      <c r="B173" s="47" t="s">
+      <c r="B173" s="19" t="s">
         <v>1098</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -20642,7 +20611,7 @@
       <c r="F173" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="G173" s="49" t="s">
+      <c r="G173" s="47" t="s">
         <v>1093</v>
       </c>
       <c r="H173" s="5" t="s">
@@ -20657,7 +20626,7 @@
       <c r="K173" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L173" s="49" t="s">
+      <c r="L173" s="47" t="s">
         <v>201</v>
       </c>
       <c r="M173" s="7">
@@ -20666,7 +20635,7 @@
       <c r="N173" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O173" s="49" t="s">
+      <c r="O173" s="47" t="s">
         <v>63</v>
       </c>
       <c r="P173" s="5" t="s">
@@ -20681,25 +20650,25 @@
       <c r="S173" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="T173" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="U173" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD173" s="55" t="s">
+      <c r="T173" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="U173" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD173" s="32" t="s">
         <v>63</v>
       </c>
       <c r="AE173" s="14">
         <v>175</v>
       </c>
-      <c r="AH173" s="56" t="s">
+      <c r="AH173" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AI173" s="58" t="s">
+      <c r="AI173" s="18" t="s">
         <v>1099</v>
       </c>
-      <c r="AJ173" s="57" t="s">
+      <c r="AJ173" s="38" t="s">
         <v>1100</v>
       </c>
       <c r="AK173" s="2" t="str">
